--- a/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC12D01-1197-4DD3-B088-15C2F9890680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{290FD65B-E9CA-45C5-BD4D-B3FEAA0B5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3950716-E30B-4FE3-A836-A59E4709B81B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C104184D-87FF-46FD-8387-67411CE76BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,118 +74,118 @@
     <t>21,52%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
     <t>75,28%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,19 +251,19 @@
     <t>24,61%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>21,6%</t>
@@ -272,31 +272,31 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>26,69%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>73,01%</t>
+    <t>73,31%</t>
   </si>
   <si>
     <t>82,7%</t>
@@ -308,55 +308,49 @@
     <t>31,19%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>70,94%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>21,47%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +416,55 @@
     <t>17,73%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,103 +473,109 @@
     <t>43,69%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>33,11%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>66,89%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99C230-3BB6-4384-9BAE-5C4F9C01EC88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC9E595-24B2-4886-9A2F-944536B8A159}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,10 +1752,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1764,13 +1764,13 @@
         <v>53751</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>80715</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -1800,13 +1800,13 @@
         <v>50475</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -1815,13 +1815,13 @@
         <v>131190</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>31600</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -1904,13 +1904,13 @@
         <v>11161</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1919,13 +1919,13 @@
         <v>42761</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>115581</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -1955,13 +1955,13 @@
         <v>86415</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -1970,13 +1970,13 @@
         <v>201997</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>59583</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2059,13 +2059,13 @@
         <v>26292</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2074,13 +2074,13 @@
         <v>85875</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2095,13 @@
         <v>276402</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -2110,13 +2110,13 @@
         <v>196551</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>443</v>
@@ -2125,13 +2125,13 @@
         <v>472952</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2199,13 @@
         <v>221474</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -2214,13 +2214,13 @@
         <v>95965</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -2229,13 +2229,13 @@
         <v>317438</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2250,13 @@
         <v>285416</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -2265,13 +2265,13 @@
         <v>250545</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>

--- a/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290FD65B-E9CA-45C5-BD4D-B3FEAA0B5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1D42B8-ECC7-4DC7-BD79-A934269949F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C104184D-87FF-46FD-8387-67411CE76BBF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25CBC01D-6902-415A-81CB-B6570844A5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,340 +74,340 @@
     <t>21,52%</t>
   </si>
   <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
     <t>15,09%</t>
   </si>
   <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>84,19%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +416,55 @@
     <t>17,73%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>43,69%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC9E595-24B2-4886-9A2F-944536B8A159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3117B45-F67C-465F-B612-893AC021EA62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,13 +1579,13 @@
         <v>51796</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1594,13 +1594,13 @@
         <v>23504</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -1609,13 +1609,13 @@
         <v>75301</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>158712</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -1645,13 +1645,13 @@
         <v>114577</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>275</v>
@@ -1660,13 +1660,13 @@
         <v>273288</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>36585</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -1749,13 +1749,13 @@
         <v>17166</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1764,13 +1764,13 @@
         <v>53751</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>80715</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -1800,13 +1800,13 @@
         <v>50475</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>

--- a/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1D42B8-ECC7-4DC7-BD79-A934269949F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D13A050-783A-4E4B-A953-602C2277278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25CBC01D-6902-415A-81CB-B6570844A5DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97304EB6-DEFE-43A4-A41C-4C6C8C9A611A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>78,48%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,163 +137,169 @@
     <t>28,25%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>13,0%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>78,4%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +308,55 @@
     <t>31,19%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>70,94%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>21,47%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +422,55 @@
     <t>17,73%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,103 @@
     <t>43,69%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>33,11%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>66,89%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3117B45-F67C-465F-B612-893AC021EA62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6926E70-8790-4820-B248-3530EC77C622}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,13 +1579,13 @@
         <v>51796</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1594,13 +1594,13 @@
         <v>23504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -1609,13 +1609,13 @@
         <v>75301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>158712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -1645,13 +1645,13 @@
         <v>114577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>275</v>
@@ -1660,13 +1660,13 @@
         <v>273288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>36585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -1749,13 +1749,13 @@
         <v>17166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1764,13 +1764,13 @@
         <v>53751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>80715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -1800,13 +1800,13 @@
         <v>50475</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -1815,13 +1815,13 @@
         <v>131190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>31600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -1904,13 +1904,13 @@
         <v>11161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1919,13 +1919,13 @@
         <v>42761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>115581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>84</v>
@@ -1955,13 +1955,13 @@
         <v>86415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -1970,13 +1970,13 @@
         <v>201997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>59583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2059,13 +2059,13 @@
         <v>26292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2074,13 +2074,13 @@
         <v>85875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2095,13 @@
         <v>276402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -2110,13 +2110,13 @@
         <v>196551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>443</v>
@@ -2125,13 +2125,13 @@
         <v>472952</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2199,13 @@
         <v>221474</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -2214,13 +2214,13 @@
         <v>95965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>309</v>
@@ -2229,13 +2229,13 @@
         <v>317438</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2250,13 @@
         <v>285416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -2265,13 +2265,13 @@
         <v>250545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>516</v>

--- a/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D13A050-783A-4E4B-A953-602C2277278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE38F803-785A-4836-96E4-8444350CCAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97304EB6-DEFE-43A4-A41C-4C6C8C9A611A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EEF7355F-0C02-40E2-9951-D18FC4C0759F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6926E70-8790-4820-B248-3530EC77C622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4DE67-3271-4F56-B14C-33DD45486707}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
